--- a/CSC3510 S2021/Lectures/NodeJSRESTRedo.xlsx
+++ b/CSC3510 S2021/Lectures/NodeJSRESTRedo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\S2021\Lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlash\Documents\GitHub\CSC3510\CSC3510 S2021\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C28FCC-AC18-4F73-BA56-1AD2A2589E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{383CAFB6-FF25-4EFF-B1F8-964043FF421F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="REST Overal" sheetId="3" r:id="rId1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1107,6 +1106,13 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -1521,6 +1527,18 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -2543,6 +2561,18 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -3175,14 +3205,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8A8A39-775C-4E34-A29A-3B504CA58A9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3190,14 +3220,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD45B9B1-6B66-42BC-A4D7-BE19C5B68606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3205,14 +3235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8131B0C5-88C0-4A0F-82F4-D5BC8D133E43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3220,14 +3250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302C73B5-5F8F-4F06-9CF8-6650AAC7BC4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3235,14 +3265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7580750D-8195-4D32-B6E0-8515CC4CA567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3250,16 +3280,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B2D519-0709-4BCD-B5CB-D84CD31B7241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>0</v>
       </c>
